--- a/misc/score_PCA.xlsx
+++ b/misc/score_PCA.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -82,6 +83,87 @@
     <rPh sb="2" eb="3">
       <t>ジク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>身長</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体重</t>
+    <rPh sb="0" eb="2">
+      <t>タイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座高</t>
+    <rPh sb="0" eb="2">
+      <t>ザコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>胸囲</t>
+    <rPh sb="0" eb="2">
+      <t>キョウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>握力</t>
+    <rPh sb="0" eb="2">
+      <t>アクリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打率</t>
+    <rPh sb="0" eb="2">
+      <t>ダリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HR数</t>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打点</t>
+    <rPh sb="0" eb="2">
+      <t>ダテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得点</t>
+    <rPh sb="0" eb="2">
+      <t>トクテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三振</t>
+    <rPh sb="0" eb="2">
+      <t>サンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四球</t>
+    <rPh sb="0" eb="2">
+      <t>シキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・・・</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -114,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -137,13 +219,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -151,6 +270,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -435,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -620,4 +751,240 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>190</v>
+      </c>
+      <c r="C3" s="1">
+        <v>110</v>
+      </c>
+      <c r="D3" s="1">
+        <v>110</v>
+      </c>
+      <c r="E3" s="1">
+        <v>90</v>
+      </c>
+      <c r="F3" s="1">
+        <v>70</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="H3" s="2">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2">
+        <v>102</v>
+      </c>
+      <c r="J3" s="2">
+        <v>95</v>
+      </c>
+      <c r="K3" s="2">
+        <v>105</v>
+      </c>
+      <c r="L3" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>180</v>
+      </c>
+      <c r="C4" s="1">
+        <v>80</v>
+      </c>
+      <c r="D4" s="1">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1">
+        <v>80</v>
+      </c>
+      <c r="F4" s="1">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="H4" s="2">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2">
+        <v>82</v>
+      </c>
+      <c r="J4" s="2">
+        <v>107</v>
+      </c>
+      <c r="K4" s="2">
+        <v>96</v>
+      </c>
+      <c r="L4" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>170</v>
+      </c>
+      <c r="C5" s="1">
+        <v>90</v>
+      </c>
+      <c r="D5" s="1">
+        <v>60</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1">
+        <v>40</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="H5" s="2">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2">
+        <v>69</v>
+      </c>
+      <c r="J5" s="2">
+        <v>59</v>
+      </c>
+      <c r="K5" s="2">
+        <v>90</v>
+      </c>
+      <c r="L5" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1">
+        <v>180</v>
+      </c>
+      <c r="C7" s="1">
+        <v>70</v>
+      </c>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1">
+        <v>90</v>
+      </c>
+      <c r="F7" s="1">
+        <v>60</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="H7" s="2">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2">
+        <v>127</v>
+      </c>
+      <c r="J7" s="2">
+        <v>104</v>
+      </c>
+      <c r="K7" s="2">
+        <v>105</v>
+      </c>
+      <c r="L7" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G8" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:L6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/misc/score_PCA.xlsx
+++ b/misc/score_PCA.xlsx
@@ -758,7 +758,7 @@
   <dimension ref="A2:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -822,7 +822,7 @@
         <v>110</v>
       </c>
       <c r="E3" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F3" s="1">
         <v>70</v>
@@ -857,13 +857,13 @@
         <v>80</v>
       </c>
       <c r="D4" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1">
         <v>80</v>
       </c>
       <c r="F4" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2">
         <v>0.32</v>
@@ -895,10 +895,10 @@
         <v>90</v>
       </c>
       <c r="D5" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F5" s="1">
         <v>40</v>
